--- a/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,62</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-3,79</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,03</t>
+          <t>-8,06; 6,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 5,7</t>
+          <t>-9,22; 5,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,24</t>
+          <t>-6,78; 6,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,42</t>
+          <t>-5,99; 8,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 3,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 1,21</t>
+          <t>-10,21; 6,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,51; -0,42</t>
+          <t>-13,04; 2,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 4,96</t>
+          <t>-13,33; 2,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 2,79</t>
+          <t>-14,55; 3,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 4,89</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-10,1; 1,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 1,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-8,79; 3,63</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>-1,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>-1,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>-6,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-5,42%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-5,15%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-4,23%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-3,04%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 9,36</t>
+          <t>-8,48; 7,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 6,57</t>
+          <t>-9,69; 6,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 7,3</t>
+          <t>-6,95; 7,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,47</t>
+          <t>-6,21; 9,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 1,32</t>
+          <t>-11,21; 8,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -0,52</t>
+          <t>-14,37; 3,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,83</t>
+          <t>-14,42; 2,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 3,24</t>
+          <t>-16,19; 4,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 2,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 0,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 5,63</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 1,25</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,12; 2,17</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 4,15</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,6</t>
+          <t>-4,83; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,62</t>
+          <t>-5,37; 2,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,67</t>
+          <t>-5,57; 1,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,45</t>
+          <t>-5,09; 2,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,97</t>
+          <t>-2,69; 6,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,97</t>
+          <t>-1,56; 7,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,6</t>
+          <t>-1,06; 8,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,9</t>
+          <t>-4,49; 5,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 3,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 3,29</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 3,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 2,42</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-0,85%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,77</t>
+          <t>-5,08; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,73</t>
+          <t>-5,67; 2,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,73</t>
+          <t>-5,82; 1,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,58</t>
+          <t>-5,33; 2,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 4,35</t>
+          <t>-2,85; 6,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,36</t>
+          <t>-1,6; 9,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,73</t>
+          <t>-1,12; 9,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,05</t>
+          <t>-4,8; 5,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 3,43</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 3,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 3,47</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 2,69</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-3,44</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,8</t>
+          <t>-7,2; 5,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,61</t>
+          <t>-5,67; 7,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 4,62</t>
+          <t>-6,16; 5,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 2,26</t>
+          <t>-7,15; 5,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; -0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -0,66</t>
+          <t>-3,66; 2,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 1,01</t>
+          <t>-8,41; -1,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,15</t>
+          <t>-8,34; -2,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,47</t>
+          <t>-8,31; -1,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 2,42</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 0,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 0,13</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; 0,11</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,18%</t>
+          <t>-4,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-3,63%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,44</t>
+          <t>-7,53; 6,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 6,39</t>
+          <t>-5,94; 8,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 5,24</t>
+          <t>-6,46; 6,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 2,32</t>
+          <t>-7,59; 5,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -0,69</t>
+          <t>-3,72; 2,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,02</t>
+          <t>-8,62; -1,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,42</t>
+          <t>-8,57; -2,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,58</t>
+          <t>-8,48; -1,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 2,58</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 0,57</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 0,14</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 0,11</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,75</t>
+          <t>-0,64; 5,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,67</t>
+          <t>-3,38; 3,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,94</t>
+          <t>-7,8; 2,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,22</t>
+          <t>-5,69; 1,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; -1,17</t>
+          <t>-2,16; 4,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,72</t>
+          <t>-6,91; 1,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,25</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 3,5</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 1,38</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,3%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-1,82%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,02</t>
+          <t>-0,7; 5,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,82</t>
+          <t>-3,66; 4,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,03</t>
+          <t>-8,41; 2,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,24</t>
+          <t>-6,12; 1,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,27; -1,23</t>
+          <t>-2,34; 5,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,78</t>
+          <t>-7,44; 2,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -0,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 2,48</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,87</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 1,52</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 2,35</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 1,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 1,02</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 1,16</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 1,63</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 0,83</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; -0,07</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; -0,24</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 1,38</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 0,91</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; -0,12</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; -0,21</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-1,09%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,28%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 2,58</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 1,67</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 1,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 1,27</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 1,8</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 0,91</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; -0,06</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; -0,27</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 1,5</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 0,99</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; -0,12</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; -0,23</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
